--- a/grupos/1EV - Estadisticos 20211.xlsx
+++ b/grupos/1EV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="96">
   <si>
     <t>Materia</t>
   </si>
@@ -137,19 +137,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
+    <t>Bautista Sarao Eutiquio</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>Gaspar Velazco Juan Francisco</t>
-  </si>
-  <si>
-    <t>Bautista Sarao Eutiquio</t>
   </si>
   <si>
     <t>Acevedo Rendón Ismael Arturo</t>
@@ -803,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>7</v>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -934,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X5">
         <v>7</v>
@@ -948,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1002,7 +1002,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -1025,16 +1025,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1079,16 +1079,16 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>7</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X7">
         <v>10</v>
@@ -1102,10 +1102,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1156,10 +1156,10 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V8">
         <v>8</v>
@@ -1179,16 +1179,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1233,16 +1233,16 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V9">
         <v>9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X9">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1319,7 +1319,7 @@
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>7</v>
@@ -1333,16 +1333,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1387,16 +1387,16 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V11">
         <v>6</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X11">
         <v>8</v>
@@ -1410,16 +1410,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1464,16 +1464,16 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V12">
         <v>7</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X12">
         <v>10</v>
@@ -1564,16 +1564,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1618,16 +1618,16 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>8</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1695,7 +1695,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U15">
         <v>-1</v>
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X15">
         <v>10</v>
@@ -1727,7 +1727,7 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1781,7 +1781,7 @@
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1795,16 +1795,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -1849,16 +1849,16 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V17">
         <v>6</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X17">
         <v>10</v>
@@ -1872,7 +1872,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1881,7 +1881,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -1926,7 +1926,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>-1</v>
@@ -1935,7 +1935,7 @@
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2026,16 +2026,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2080,16 +2080,16 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V20">
         <v>8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X20">
         <v>10</v>
@@ -2103,16 +2103,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2157,16 +2157,16 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V21">
         <v>8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -2240,22 +2240,25 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
+      </c>
       <c r="I2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2269,27 +2272,30 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>6.9</v>
+      </c>
       <c r="I3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -2298,27 +2304,30 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>7.1</v>
+      </c>
       <c r="I4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -2327,30 +2336,30 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>72.22</v>
+        <v>77.78</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>9.9</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>27.78</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -2359,25 +2368,25 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>77.78</v>
+        <v>83.33</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>22.22</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2466,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2486,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2526,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2546,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2586,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2606,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2646,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2666,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2706,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2726,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2766,7 +2775,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2786,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2826,7 +2835,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2846,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2886,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2906,7 +2915,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2946,7 +2955,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2966,7 +2975,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3006,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3026,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3066,7 +3075,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3086,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3126,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3146,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3186,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3206,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3246,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3266,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3306,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3326,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3366,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3386,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3426,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3446,7 +3455,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3486,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3506,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3546,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3566,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3606,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3626,7 +3635,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3666,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3686,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3726,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3746,7 +3755,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3786,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3806,7 +3815,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3846,7 +3855,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3866,7 +3875,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3906,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3926,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3966,7 +3975,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3986,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4026,7 +4035,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4046,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4086,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4106,7 +4115,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4146,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4166,7 +4175,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4206,7 +4215,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4226,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4266,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4286,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4326,7 +4335,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4346,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4386,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4406,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4446,7 +4455,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4466,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4506,7 +4515,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4526,7 +4535,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4566,7 +4575,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4586,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4956,7 +4965,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4989,6 +4998,167 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1EV - Estadisticos 20211.xlsx
+++ b/grupos/1EV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="107">
   <si>
     <t>Materia</t>
   </si>
@@ -98,6 +98,9 @@
     <t>PEREZ ROSAS DAVID</t>
   </si>
   <si>
+    <t>PEÑA RIVADENEYRA OLIVER ULISES</t>
+  </si>
+  <si>
     <t>RAMIREZ GOMEZ RONALDO</t>
   </si>
   <si>
@@ -110,6 +113,12 @@
     <t>REYES SANCHEZ LUIS ANGEL</t>
   </si>
   <si>
+    <t>SALAZAR HERNANDEZ LUIS GUILLERMO</t>
+  </si>
+  <si>
+    <t>TEMOXTLE GARCIA EMMANUEL</t>
+  </si>
+  <si>
     <t>Docente</t>
   </si>
   <si>
@@ -173,21 +182,105 @@
     <t>ARELLANO</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>RIVADENEYRA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GALICIA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PEDRO ANGEL</t>
+  </si>
+  <si>
+    <t>DAVID OSWALDO</t>
+  </si>
+  <si>
+    <t>CRISTHIAN ALFONSO</t>
+  </si>
+  <si>
+    <t>ALBERTO SHAKIB</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>JOSIAH</t>
+  </si>
+  <si>
+    <t>OLIVER ULISES</t>
+  </si>
+  <si>
+    <t>RONALDO</t>
+  </si>
+  <si>
+    <t>ROGELIO</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
     <t>CAMPOS</t>
   </si>
   <si>
     <t>CABRERA</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
@@ -197,39 +290,15 @@
     <t>MOTA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
     <t>GUERRA</t>
   </si>
   <si>
@@ -239,42 +308,18 @@
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GALICIA</t>
-  </si>
-  <si>
-    <t>PEDRO ANGEL</t>
-  </si>
-  <si>
-    <t>DAVID OSWALDO</t>
-  </si>
-  <si>
     <t>GAEL JARED</t>
   </si>
   <si>
     <t>JOSE RUBEN</t>
   </si>
   <si>
-    <t>CRISTHIAN ALFONSO</t>
-  </si>
-  <si>
     <t>MILKA SARAY</t>
   </si>
   <si>
-    <t>ALBERTO SHAKIB</t>
-  </si>
-  <si>
     <t>ASHLEY NALLELY</t>
   </si>
   <si>
@@ -284,22 +329,10 @@
     <t>ISAAC</t>
   </si>
   <si>
-    <t>KARLA</t>
-  </si>
-  <si>
     <t>ALEXIS ISAI</t>
   </si>
   <si>
-    <t>JOSIAH</t>
-  </si>
-  <si>
     <t>DAVID</t>
-  </si>
-  <si>
-    <t>RONALDO</t>
-  </si>
-  <si>
-    <t>ROGELIO</t>
   </si>
   <si>
     <t>JOSELIN</t>
@@ -663,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,7 +984,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1005,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V6">
         <v>6</v>
@@ -1644,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1698,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <v>7</v>
@@ -1872,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1881,7 +1914,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>-1</v>
@@ -1926,7 +1959,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="U18">
         <v>-1</v>
@@ -1935,7 +1968,7 @@
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -1949,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -1958,10 +1991,10 @@
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -2003,7 +2036,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -2012,10 +2045,10 @@
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X19">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2026,22 +2059,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2080,22 +2113,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="V20">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y20">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2106,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2160,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V21">
         <v>8</v>
@@ -2173,6 +2206,237 @@
       </c>
       <c r="Y21">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22">
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>-1</v>
+      </c>
+      <c r="S22">
+        <v>-1</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
+      <c r="W22">
+        <v>8</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+      <c r="Y22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>-1</v>
+      </c>
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+      <c r="R23">
+        <v>-1</v>
+      </c>
+      <c r="S23">
+        <v>-1</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>-1</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2202,31 +2466,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2234,31 +2498,31 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>52.38</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2266,31 +2530,31 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>66.67</v>
+        <v>57.14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="H3">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>33.33</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2298,10 +2562,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -2310,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>72.22</v>
+        <v>61.9</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2319,10 +2583,10 @@
         <v>7.1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>27.78</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2330,10 +2594,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -2342,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>77.78</v>
+        <v>66.67</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2351,10 +2615,10 @@
         <v>9.9</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2362,10 +2626,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -2374,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2383,10 +2647,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>16.67</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2394,19 +2658,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>83.33</v>
+        <v>76.19</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2415,10 +2679,10 @@
         <v>9.1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>16.67</v>
+        <v>23.81</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2692,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2440,16 +2704,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2463,16 +2727,16 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -2483,96 +2747,96 @@
         <v>21330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>21330051920135</v>
+        <v>21330051920136</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920135</v>
+        <v>21330051920136</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920135</v>
+        <v>21330051920139</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920135</v>
+        <v>21330051920141</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -2580,19 +2844,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920136</v>
+        <v>21330051920141</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -2600,199 +2864,199 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920136</v>
+        <v>21330051920141</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920136</v>
+        <v>21330051920144</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920136</v>
+        <v>21330051920144</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920136</v>
+        <v>21330051920144</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920136</v>
+        <v>21330051920144</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920137</v>
+        <v>21330051920144</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920137</v>
+        <v>21330051920144</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920137</v>
+        <v>21330051920384</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920137</v>
+        <v>21330051920384</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920137</v>
+        <v>21330051920384</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>42</v>
@@ -2800,119 +3064,119 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920137</v>
+        <v>21330051920384</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920138</v>
+        <v>21330051920384</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920138</v>
+        <v>21330051920395</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920138</v>
+        <v>21330051920395</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920138</v>
+        <v>21330051920395</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920138</v>
+        <v>21330051920395</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2920,259 +3184,259 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920138</v>
+        <v>21330051920395</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920139</v>
+        <v>21330051920395</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920139</v>
+        <v>21330051920147</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920139</v>
+        <v>21330051920147</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920139</v>
+        <v>21330051920147</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920139</v>
+        <v>21330051920147</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920139</v>
+        <v>21330051920148</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920140</v>
+        <v>21330051920148</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920140</v>
+        <v>21330051920148</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920140</v>
+        <v>21330051920148</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920140</v>
+        <v>21330051920148</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920140</v>
+        <v>21330051920382</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920140</v>
+        <v>21330051920382</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -3180,1442 +3444,162 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920141</v>
+        <v>21330051920382</v>
       </c>
       <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920141</v>
+        <v>21330051920382</v>
       </c>
       <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920141</v>
+        <v>21330051920392</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920141</v>
+        <v>21330051920392</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920141</v>
+        <v>21330051920392</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920141</v>
+        <v>21330051920392</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>21330051920142</v>
+        <v>21330051920392</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920142</v>
+        <v>21330051920392</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>21330051920142</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>21330051920142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>21330051920142</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>21330051920142</v>
-      </c>
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>21330051920143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>21330051920143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>21330051920143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>21330051920143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>21330051920143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>21330051920143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>21330051920381</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>21330051920381</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>21330051920381</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>21330051920381</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>21330051920381</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>21330051920381</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>21330051920144</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>21330051920144</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" t="s">
-        <v>88</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920144</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920144</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920144</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" t="s">
-        <v>88</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920144</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920145</v>
-      </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920145</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920145</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920145</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920145</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920145</v>
-      </c>
-      <c r="B73" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920384</v>
-      </c>
-      <c r="B74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920384</v>
-      </c>
-      <c r="B75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920384</v>
-      </c>
-      <c r="B76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920384</v>
-      </c>
-      <c r="B77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920384</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920384</v>
-      </c>
-      <c r="B79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920146</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920146</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920146</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920146</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920146</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920146</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920147</v>
-      </c>
-      <c r="B86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920147</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920147</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920147</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920147</v>
-      </c>
-      <c r="B90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920147</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920148</v>
-      </c>
-      <c r="B92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-      <c r="D92" t="s">
-        <v>93</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920148</v>
-      </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920148</v>
-      </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920148</v>
-      </c>
-      <c r="B95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920148</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920148</v>
-      </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920149</v>
-      </c>
-      <c r="B98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" t="s">
-        <v>94</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920149</v>
-      </c>
-      <c r="B100" t="s">
-        <v>63</v>
-      </c>
-      <c r="C100" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" t="s">
-        <v>94</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920149</v>
-      </c>
-      <c r="B101" t="s">
-        <v>63</v>
-      </c>
-      <c r="C101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920149</v>
-      </c>
-      <c r="B102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D102" t="s">
-        <v>94</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920149</v>
-      </c>
-      <c r="B103" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" t="s">
-        <v>94</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920150</v>
-      </c>
-      <c r="B104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" t="s">
-        <v>73</v>
-      </c>
-      <c r="D104" t="s">
-        <v>95</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920150</v>
-      </c>
-      <c r="B105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" t="s">
-        <v>95</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920150</v>
-      </c>
-      <c r="B106" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920150</v>
-      </c>
-      <c r="B107" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" t="s">
-        <v>95</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920150</v>
-      </c>
-      <c r="B108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" t="s">
-        <v>73</v>
-      </c>
-      <c r="D108" t="s">
-        <v>95</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920150</v>
-      </c>
-      <c r="B109" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109" t="s">
-        <v>95</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +3609,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4637,33 +3621,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920135</v>
+        <v>21330051920144</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -4671,13 +3655,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920136</v>
+        <v>21330051920395</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>
@@ -4688,16 +3672,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920137</v>
+        <v>21330051920392</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -4705,257 +3689,308 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920138</v>
+        <v>21330051920384</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920139</v>
+        <v>21330051920148</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>21330051920140</v>
+        <v>21330051920147</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>21330051920141</v>
+        <v>21330051920382</v>
       </c>
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920142</v>
+        <v>21330051920141</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920143</v>
+        <v>21330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920381</v>
+        <v>21330051920136</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920144</v>
+        <v>21330051920139</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920145</v>
+        <v>21330051920137</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920384</v>
+        <v>21330051920138</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920146</v>
+        <v>21330051920140</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920147</v>
+        <v>21330051920142</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920148</v>
+        <v>21330051920143</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21330051920149</v>
+        <v>21330051920381</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
+        <v>21330051920145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>21330051920146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>21330051920149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>21330051920150</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +4000,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4977,22 +4012,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -5003,19 +4038,19 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5026,19 +4061,19 @@
         <v>21330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5049,19 +4084,19 @@
         <v>21330051920136</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5072,19 +4107,19 @@
         <v>21330051920136</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5092,70 +4127,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920138</v>
+        <v>21330051920139</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>21330051920139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21330051920145</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
         <v>-1</v>
       </c>
     </row>
